--- a/data/unchecked/manual_collect/iran/IranCaseStatistics_20200223.xlsx
+++ b/data/unchecked/manual_collect/iran/IranCaseStatistics_20200223.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\23日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\COVID-19\data\unchecked\manual_collect\iran\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10835,7 +10835,7 @@
   <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>3300</v>
@@ -11100,7 +11100,7 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>3300</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>3300</v>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>3300</v>
@@ -11229,7 +11229,7 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>3290</v>

--- a/data/unchecked/manual_collect/iran/IranCaseStatistics_20200223.xlsx
+++ b/data/unchecked/manual_collect/iran/IranCaseStatistics_20200223.xlsx
@@ -10835,7 +10835,7 @@
   <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11004,10 +11004,10 @@
         <v>3300</v>
       </c>
       <c r="C2" s="22">
-        <v>43883.5</v>
+        <v>43884</v>
       </c>
       <c r="D2" s="22">
-        <v>43884.5</v>
+        <v>43885</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>3294</v>
@@ -11063,10 +11063,10 @@
         <v>3300</v>
       </c>
       <c r="C3" s="22">
-        <v>43883.5</v>
+        <v>43884</v>
       </c>
       <c r="D3" s="22">
-        <v>43884.5</v>
+        <v>43885</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>3294</v>
@@ -11106,10 +11106,10 @@
         <v>3300</v>
       </c>
       <c r="C4" s="22">
-        <v>43883.5</v>
+        <v>43884</v>
       </c>
       <c r="D4" s="22">
-        <v>43884.5</v>
+        <v>43885</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>3294</v>
@@ -11149,10 +11149,10 @@
         <v>3300</v>
       </c>
       <c r="C5" s="22">
-        <v>43883.5</v>
+        <v>43884</v>
       </c>
       <c r="D5" s="22">
-        <v>43884.5</v>
+        <v>43885</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>3294</v>
@@ -11192,10 +11192,10 @@
         <v>3300</v>
       </c>
       <c r="C6" s="22">
-        <v>43883.5</v>
+        <v>43884</v>
       </c>
       <c r="D6" s="22">
-        <v>43884.5</v>
+        <v>43885</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>3294</v>
@@ -11235,10 +11235,10 @@
         <v>3290</v>
       </c>
       <c r="C7" s="22">
-        <v>43883.5</v>
+        <v>43884</v>
       </c>
       <c r="D7" s="22">
-        <v>43884.5</v>
+        <v>43885</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>3294</v>
